--- a/data/download_SZ159545.xlsx
+++ b/data/download_SZ159545.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5457,6 +5457,102 @@
         <v>1.212</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1.215</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.213</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.221</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.234</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159545.xlsx
+++ b/data/download_SZ159545.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1.224</v>
+        <v>1.221</v>
       </c>
       <c r="D213" t="n">
         <v>1.246</v>
@@ -5550,7 +5550,31 @@
         <v>1.246</v>
       </c>
       <c r="F213" t="n">
-        <v>1.221</v>
+        <v>1.219</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.222</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SZ159545.xlsx
+++ b/data/download_SZ159545.xlsx
@@ -5565,16 +5565,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.232</v>
+        <v>1.221</v>
       </c>
       <c r="D214" t="n">
         <v>1.222</v>
       </c>
       <c r="E214" t="n">
-        <v>1.232</v>
+        <v>1.238</v>
       </c>
       <c r="F214" t="n">
-        <v>1.222</v>
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SZ159545.xlsx
+++ b/data/download_SZ159545.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5577,6 +5577,870 @@
         <v>1.22</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.226</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.244</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.226</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1.243</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.249</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.253</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.267</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.246</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.267</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.258</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.259</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1.274</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1.283</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.274</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.273</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1.297</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.298</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1.285</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.297</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.303</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.295</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.304</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1.273</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.269</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.268</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.283</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.271</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1.259</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.258</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.267</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1.254</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1.261</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.217</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.152</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.178</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1.154</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1.133</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.207</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.186</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.189</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1.215</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.203</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.218</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1.203</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.218</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1.217</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1.215</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.226</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.216</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.223</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1.217</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1.214</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.218</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1.213</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.236</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1.236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159545.xlsx
+++ b/data/download_SZ159545.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6441,6 +6441,54 @@
         <v>1.236</v>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1.233</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1.244</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159545.xlsx
+++ b/data/download_SZ159545.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6489,6 +6489,126 @@
         <v>1.24</v>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1.251</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.244</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.251</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1.237</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.251</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1.233</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1.251</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1.243</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1.261</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.267</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1.256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159545.xlsx
+++ b/data/download_SZ159545.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>最低Low</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅PRT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,16 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9286</v>
+        <v>0.92</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9459</v>
+        <v>0.9372</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9286</v>
+        <v>0.92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9382</v>
+        <v>0.9296</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9411</v>
+        <v>0.9324</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9343</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9372</v>
+        <v>0.9286</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9392</v>
+        <v>0.9305</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9449</v>
+        <v>0.9362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9372</v>
+        <v>0.9286</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +563,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9507</v>
+        <v>0.9419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.944</v>
+        <v>0.9353</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9526</v>
+        <v>0.9438</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9343</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +590,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9488</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9507</v>
+        <v>0.9419</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9526</v>
+        <v>0.9438</v>
       </c>
       <c r="F6" t="n">
-        <v>0.944</v>
+        <v>0.9353</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +617,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9526</v>
+        <v>0.9438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9478</v>
+        <v>0.9391</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9593</v>
+        <v>0.9505</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9478</v>
+        <v>0.9391</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +644,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9536</v>
+        <v>0.9448</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9536</v>
+        <v>0.9448</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9584</v>
+        <v>0.9495</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9517</v>
+        <v>0.9429</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +671,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9593</v>
+        <v>0.9505</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9574</v>
+        <v>0.9486</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9593</v>
+        <v>0.9505</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9545</v>
+        <v>0.9457</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +698,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9651</v>
+        <v>0.9562</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9593</v>
+        <v>0.9505</v>
       </c>
       <c r="E10" t="n">
-        <v>0.968</v>
+        <v>0.9591</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9584</v>
+        <v>0.9495</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +725,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9747</v>
+        <v>0.9657</v>
       </c>
       <c r="D11" t="n">
-        <v>0.967</v>
+        <v>0.9581</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9776</v>
+        <v>0.9686</v>
       </c>
       <c r="F11" t="n">
-        <v>0.967</v>
+        <v>0.9581</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +752,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9824000000000001</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9776</v>
+        <v>0.9686</v>
       </c>
       <c r="E12" t="n">
-        <v>0.991</v>
+        <v>0.9819</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9718</v>
+        <v>0.9629</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +779,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9785</v>
+        <v>0.9695</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9843</v>
+        <v>0.9752</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9929</v>
+        <v>0.9838</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9757</v>
+        <v>0.9667</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +806,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.992</v>
+        <v>0.9828</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9833</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9958</v>
+        <v>0.9866</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9833</v>
+        <v>0.9743000000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15">
@@ -789,16 +833,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9987</v>
+        <v>0.9895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9929</v>
+        <v>0.9838</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997</v>
+        <v>0.9905</v>
       </c>
       <c r="F15" t="n">
-        <v>0.991</v>
+        <v>0.9819</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="16">
@@ -813,16 +860,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.991</v>
+        <v>0.9819</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0016</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0083</v>
+        <v>0.999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9901</v>
+        <v>0.9809</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +887,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.0045</v>
+        <v>0.9952</v>
       </c>
       <c r="D17" t="n">
-        <v>0.991</v>
+        <v>0.9819</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0054</v>
+        <v>0.9962</v>
       </c>
       <c r="F17" t="n">
-        <v>0.991</v>
+        <v>0.9819</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="18">
@@ -861,16 +914,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.0429</v>
+        <v>1.0333</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0179</v>
+        <v>1.0085</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0458</v>
+        <v>1.0361</v>
       </c>
       <c r="F18" t="n">
-        <v>1.015</v>
+        <v>1.0057</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="19">
@@ -885,16 +941,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.0678</v>
+        <v>1.058</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0496</v>
+        <v>1.0399</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0698</v>
+        <v>1.0599</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0448</v>
+        <v>1.0352</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="20">
@@ -909,16 +968,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.0554</v>
+        <v>1.0456</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0755</v>
+        <v>1.0656</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0775</v>
+        <v>1.0675</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0525</v>
+        <v>1.0428</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="21">
@@ -933,16 +995,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.0525</v>
+        <v>1.0428</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0554</v>
+        <v>1.0456</v>
       </c>
       <c r="E21" t="n">
-        <v>1.0573</v>
+        <v>1.0475</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="22">
@@ -957,16 +1022,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.0707</v>
+        <v>1.0609</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0563</v>
+        <v>1.0466</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0775</v>
+        <v>1.0675</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0563</v>
+        <v>1.0466</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="23">
@@ -981,16 +1049,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.0803</v>
+        <v>1.0704</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0755</v>
+        <v>1.0656</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0823</v>
+        <v>1.0723</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0678</v>
+        <v>1.058</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="24">
@@ -1005,16 +1076,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.0871</v>
+        <v>1.077</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0851</v>
+        <v>1.0751</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0919</v>
+        <v>1.0818</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0851</v>
+        <v>1.0751</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="25">
@@ -1029,16 +1103,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.0736</v>
+        <v>1.0637</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0842</v>
+        <v>1.0742</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0871</v>
+        <v>1.077</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0726</v>
+        <v>1.0628</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.23</v>
       </c>
     </row>
     <row r="26">
@@ -1053,16 +1130,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.0775</v>
+        <v>1.0675</v>
       </c>
       <c r="D26" t="n">
-        <v>1.0746</v>
+        <v>1.0647</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0871</v>
+        <v>1.077</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0736</v>
+        <v>1.0637</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1157,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.065</v>
+        <v>1.0552</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0775</v>
+        <v>1.0675</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0775</v>
+        <v>1.0675</v>
       </c>
       <c r="F27" t="n">
-        <v>1.0563</v>
+        <v>1.0466</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.15</v>
       </c>
     </row>
     <row r="28">
@@ -1101,16 +1184,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0621</v>
+        <v>1.0523</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0659</v>
+        <v>1.0561</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.36</v>
       </c>
     </row>
     <row r="29">
@@ -1125,16 +1211,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.0717</v>
+        <v>1.0618</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0717</v>
+        <v>1.0618</v>
       </c>
       <c r="F29" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row r="30">
@@ -1149,16 +1238,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.0698</v>
+        <v>1.0599</v>
       </c>
       <c r="D30" t="n">
-        <v>1.0707</v>
+        <v>1.0609</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0803</v>
+        <v>1.0704</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0669</v>
+        <v>1.0571</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="31">
@@ -1173,16 +1265,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.0573</v>
+        <v>1.0475</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0698</v>
+        <v>1.0599</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0698</v>
+        <v>1.0599</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0554</v>
+        <v>1.0456</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="32">
@@ -1197,16 +1292,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.04</v>
+        <v>1.0304</v>
       </c>
       <c r="D32" t="n">
-        <v>1.0563</v>
+        <v>1.0466</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0592</v>
+        <v>1.0494</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0381</v>
+        <v>1.0285</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1.63</v>
       </c>
     </row>
     <row r="33">
@@ -1221,16 +1319,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.0429</v>
+        <v>1.0333</v>
       </c>
       <c r="D33" t="n">
-        <v>1.0448</v>
+        <v>1.0352</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0563</v>
+        <v>1.0466</v>
       </c>
       <c r="F33" t="n">
-        <v>1.0419</v>
+        <v>1.0323</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="34">
@@ -1245,16 +1346,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.0525</v>
+        <v>1.0428</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0467</v>
+        <v>1.0371</v>
       </c>
       <c r="E34" t="n">
-        <v>1.0582</v>
+        <v>1.0485</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0429</v>
+        <v>1.0333</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="35">
@@ -1269,16 +1373,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.0544</v>
+        <v>1.0447</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0496</v>
+        <v>1.0399</v>
       </c>
       <c r="E35" t="n">
-        <v>1.0554</v>
+        <v>1.0456</v>
       </c>
       <c r="F35" t="n">
-        <v>1.0458</v>
+        <v>1.0361</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="36">
@@ -1293,16 +1400,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.0438</v>
+        <v>1.0342</v>
       </c>
       <c r="D36" t="n">
-        <v>1.0554</v>
+        <v>1.0456</v>
       </c>
       <c r="E36" t="n">
-        <v>1.063</v>
+        <v>1.0533</v>
       </c>
       <c r="F36" t="n">
-        <v>1.041</v>
+        <v>1.0314</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1.01</v>
       </c>
     </row>
     <row r="37">
@@ -1317,16 +1427,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.0448</v>
+        <v>1.0352</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0496</v>
+        <v>1.0399</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0544</v>
+        <v>1.0447</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0429</v>
+        <v>1.0333</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -1341,16 +1454,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.0525</v>
+        <v>1.0428</v>
       </c>
       <c r="D38" t="n">
-        <v>1.0477</v>
+        <v>1.038</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0534</v>
+        <v>1.0437</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0477</v>
+        <v>1.038</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="39">
@@ -1365,16 +1481,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.0304</v>
+        <v>1.0209</v>
       </c>
       <c r="D39" t="n">
-        <v>1.0515</v>
+        <v>1.0418</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0515</v>
+        <v>1.0418</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0246</v>
+        <v>1.0152</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2.1</v>
       </c>
     </row>
     <row r="40">
@@ -1389,16 +1508,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.0266</v>
+        <v>1.0171</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0256</v>
+        <v>1.0161</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0285</v>
+        <v>1.019</v>
       </c>
       <c r="F40" t="n">
-        <v>1.015</v>
+        <v>1.0057</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="41">
@@ -1413,16 +1535,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.0256</v>
+        <v>1.0161</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0323</v>
+        <v>1.0228</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0362</v>
+        <v>1.0266</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0227</v>
+        <v>1.0133</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="42">
@@ -1437,16 +1562,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.0333</v>
+        <v>1.0238</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0246</v>
+        <v>1.0152</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0371</v>
+        <v>1.0276</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0237</v>
+        <v>1.0142</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="43">
@@ -1461,16 +1589,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.0218</v>
+        <v>1.0123</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0285</v>
+        <v>1.019</v>
       </c>
       <c r="E43" t="n">
-        <v>1.0333</v>
+        <v>1.0238</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0208</v>
+        <v>1.0114</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1.12</v>
       </c>
     </row>
     <row r="44">
@@ -1485,16 +1616,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.0304</v>
+        <v>1.0209</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0227</v>
+        <v>1.0133</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0314</v>
+        <v>1.0219</v>
       </c>
       <c r="F44" t="n">
-        <v>1.0198</v>
+        <v>1.0104</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="45">
@@ -1509,16 +1643,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
       </c>
       <c r="D45" t="n">
-        <v>1.0304</v>
+        <v>1.0209</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0515</v>
+        <v>1.0418</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0304</v>
+        <v>1.0209</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="46">
@@ -1533,16 +1670,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.0515</v>
+        <v>1.0418</v>
       </c>
       <c r="D46" t="n">
-        <v>1.0515</v>
+        <v>1.0418</v>
       </c>
       <c r="E46" t="n">
-        <v>1.063</v>
+        <v>1.0533</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="47">
@@ -1557,16 +1697,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.0429</v>
+        <v>1.0333</v>
       </c>
       <c r="D47" t="n">
-        <v>1.0477</v>
+        <v>1.038</v>
       </c>
       <c r="E47" t="n">
-        <v>1.0525</v>
+        <v>1.0428</v>
       </c>
       <c r="F47" t="n">
-        <v>1.039</v>
+        <v>1.0295</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.82</v>
       </c>
     </row>
     <row r="48">
@@ -1581,16 +1724,19 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>1.0209</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.0276</v>
+      </c>
+      <c r="E48" t="n">
         <v>1.0304</v>
       </c>
-      <c r="D48" t="n">
-        <v>1.0371</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1.04</v>
-      </c>
       <c r="F48" t="n">
-        <v>1.0304</v>
+        <v>1.0209</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="49">
@@ -1605,16 +1751,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.041</v>
+        <v>1.0314</v>
       </c>
       <c r="D49" t="n">
-        <v>1.0458</v>
+        <v>1.0361</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0544</v>
+        <v>1.0447</v>
       </c>
       <c r="F49" t="n">
-        <v>1.0381</v>
+        <v>1.0285</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="50">
@@ -1629,16 +1778,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.0486</v>
+        <v>1.039</v>
       </c>
       <c r="D50" t="n">
-        <v>1.04</v>
+        <v>1.0304</v>
       </c>
       <c r="E50" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0381</v>
+        <v>1.0285</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="51">
@@ -1653,16 +1805,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.0342</v>
+        <v>1.0247</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0496</v>
+        <v>1.0399</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0496</v>
+        <v>1.0399</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0323</v>
+        <v>1.0228</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1.38</v>
       </c>
     </row>
     <row r="52">
@@ -1677,16 +1832,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0304</v>
+        <v>1.0209</v>
       </c>
       <c r="E52" t="n">
-        <v>1.0554</v>
+        <v>1.0456</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0294</v>
+        <v>1.02</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="53">
@@ -1701,16 +1859,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.0563</v>
+        <v>1.0466</v>
       </c>
       <c r="D53" t="n">
-        <v>1.0467</v>
+        <v>1.0371</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0602</v>
+        <v>1.0504</v>
       </c>
       <c r="F53" t="n">
-        <v>1.0467</v>
+        <v>1.0371</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="54">
@@ -1725,16 +1886,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.0669</v>
+        <v>1.0571</v>
       </c>
       <c r="D54" t="n">
-        <v>1.0563</v>
+        <v>1.0466</v>
       </c>
       <c r="E54" t="n">
-        <v>1.0707</v>
+        <v>1.0609</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0544</v>
+        <v>1.0447</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1749,16 +1913,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.0602</v>
+        <v>1.0504</v>
       </c>
       <c r="D55" t="n">
-        <v>1.0611</v>
+        <v>1.0513</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0832</v>
+        <v>1.0732</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0573</v>
+        <v>1.0475</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="56">
@@ -1773,16 +1940,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.0698</v>
+        <v>1.0599</v>
       </c>
       <c r="D56" t="n">
-        <v>1.064</v>
+        <v>1.0542</v>
       </c>
       <c r="E56" t="n">
-        <v>1.0717</v>
+        <v>1.0618</v>
       </c>
       <c r="F56" t="n">
-        <v>1.064</v>
+        <v>1.0542</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="57">
@@ -1797,16 +1967,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.0592</v>
+        <v>1.0494</v>
       </c>
       <c r="D57" t="n">
-        <v>1.0698</v>
+        <v>1.0599</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0746</v>
+        <v>1.0647</v>
       </c>
       <c r="F57" t="n">
-        <v>1.0573</v>
+        <v>1.0475</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.99</v>
       </c>
     </row>
     <row r="58">
@@ -1821,16 +1994,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.0467</v>
+        <v>1.0371</v>
       </c>
       <c r="D58" t="n">
-        <v>1.0563</v>
+        <v>1.0466</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0563</v>
+        <v>1.0466</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0438</v>
+        <v>1.0342</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="59">
@@ -1845,16 +2021,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.0496</v>
+        <v>1.0399</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0429</v>
+        <v>1.0333</v>
       </c>
       <c r="E59" t="n">
-        <v>1.0515</v>
+        <v>1.0418</v>
       </c>
       <c r="F59" t="n">
-        <v>1.04</v>
+        <v>1.0304</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="60">
@@ -1869,16 +2048,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.0333</v>
+        <v>1.0238</v>
       </c>
       <c r="D60" t="n">
-        <v>1.0467</v>
+        <v>1.0371</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0506</v>
+        <v>1.0409</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0323</v>
+        <v>1.0228</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1.55</v>
       </c>
     </row>
     <row r="61">
@@ -1893,16 +2075,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.0438</v>
+        <v>1.0342</v>
       </c>
       <c r="D61" t="n">
+        <v>1.0257</v>
+      </c>
+      <c r="E61" t="n">
         <v>1.0352</v>
       </c>
-      <c r="E61" t="n">
-        <v>1.0448</v>
-      </c>
       <c r="F61" t="n">
-        <v>1.0352</v>
+        <v>1.0257</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="62">
@@ -1917,16 +2102,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.0621</v>
+        <v>1.0523</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0477</v>
+        <v>1.038</v>
       </c>
       <c r="E62" t="n">
-        <v>1.0621</v>
+        <v>1.0523</v>
       </c>
       <c r="F62" t="n">
-        <v>1.0458</v>
+        <v>1.0361</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="63">
@@ -1941,16 +2129,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.0544</v>
+        <v>1.0447</v>
       </c>
       <c r="D63" t="n">
-        <v>1.0611</v>
+        <v>1.0513</v>
       </c>
       <c r="E63" t="n">
-        <v>1.065</v>
+        <v>1.0552</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0534</v>
+        <v>1.0437</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="64">
@@ -1965,16 +2156,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.0448</v>
+        <v>1.0352</v>
       </c>
       <c r="D64" t="n">
-        <v>1.0515</v>
+        <v>1.0418</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0544</v>
+        <v>1.0447</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0438</v>
+        <v>1.0342</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="65">
@@ -1989,16 +2183,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.0381</v>
+        <v>1.0285</v>
       </c>
       <c r="D65" t="n">
-        <v>1.0448</v>
+        <v>1.0352</v>
       </c>
       <c r="E65" t="n">
-        <v>1.0486</v>
+        <v>1.039</v>
       </c>
       <c r="F65" t="n">
-        <v>1.0362</v>
+        <v>1.0266</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="66">
@@ -2013,16 +2210,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.0477</v>
+        <v>1.038</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0362</v>
+        <v>1.0266</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0477</v>
+        <v>1.038</v>
       </c>
       <c r="F66" t="n">
-        <v>1.0323</v>
+        <v>1.0228</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="67">
@@ -2037,16 +2237,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.0256</v>
+        <v>1.0161</v>
       </c>
       <c r="D67" t="n">
-        <v>1.0477</v>
+        <v>1.038</v>
       </c>
       <c r="E67" t="n">
-        <v>1.0477</v>
+        <v>1.038</v>
       </c>
       <c r="F67" t="n">
-        <v>1.0237</v>
+        <v>1.0142</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-2.11</v>
       </c>
     </row>
     <row r="68">
@@ -2061,16 +2264,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.0342</v>
+        <v>1.0247</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0256</v>
+        <v>1.0161</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0342</v>
+        <v>1.0247</v>
       </c>
       <c r="F68" t="n">
-        <v>1.016</v>
+        <v>1.0066</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="69">
@@ -2085,16 +2291,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.039</v>
+        <v>1.0295</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0342</v>
+        <v>1.0247</v>
       </c>
       <c r="E69" t="n">
-        <v>1.0467</v>
+        <v>1.0371</v>
       </c>
       <c r="F69" t="n">
-        <v>1.0342</v>
+        <v>1.0247</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="70">
@@ -2109,16 +2318,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.039</v>
+        <v>1.0295</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0381</v>
+        <v>1.0285</v>
       </c>
       <c r="E70" t="n">
-        <v>1.0419</v>
+        <v>1.0323</v>
       </c>
       <c r="F70" t="n">
-        <v>1.0352</v>
+        <v>1.0257</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2133,16 +2345,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.0179</v>
+        <v>1.0085</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0342</v>
+        <v>1.0247</v>
       </c>
       <c r="E71" t="n">
-        <v>1.039</v>
+        <v>1.0295</v>
       </c>
       <c r="F71" t="n">
-        <v>1.016</v>
+        <v>1.0066</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-2.04</v>
       </c>
     </row>
     <row r="72">
@@ -2157,16 +2372,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.0141</v>
+        <v>1.0047</v>
       </c>
       <c r="D72" t="n">
-        <v>1.0179</v>
+        <v>1.0085</v>
       </c>
       <c r="E72" t="n">
-        <v>1.0275</v>
+        <v>1.018</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0112</v>
+        <v>1.0019</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="73">
@@ -2181,16 +2399,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.0275</v>
+        <v>1.018</v>
       </c>
       <c r="D73" t="n">
-        <v>1.015</v>
+        <v>1.0057</v>
       </c>
       <c r="E73" t="n">
-        <v>1.0294</v>
+        <v>1.02</v>
       </c>
       <c r="F73" t="n">
-        <v>1.015</v>
+        <v>1.0057</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="74">
@@ -2205,16 +2426,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.0131</v>
+        <v>1.0038</v>
       </c>
       <c r="D74" t="n">
-        <v>1.0275</v>
+        <v>1.018</v>
       </c>
       <c r="E74" t="n">
-        <v>1.0275</v>
+        <v>1.018</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0122</v>
+        <v>1.0028</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1.39</v>
       </c>
     </row>
     <row r="75">
@@ -2229,16 +2453,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.0218</v>
+        <v>1.0123</v>
       </c>
       <c r="D75" t="n">
-        <v>1.0131</v>
+        <v>1.0038</v>
       </c>
       <c r="E75" t="n">
-        <v>1.0227</v>
+        <v>1.0133</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0083</v>
+        <v>0.999</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="76">
@@ -2253,16 +2480,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.0208</v>
+        <v>1.0114</v>
       </c>
       <c r="D76" t="n">
-        <v>1.017</v>
+        <v>1.0076</v>
       </c>
       <c r="E76" t="n">
-        <v>1.0237</v>
+        <v>1.0142</v>
       </c>
       <c r="F76" t="n">
-        <v>1.0141</v>
+        <v>1.0047</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="77">
@@ -2277,16 +2507,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.0131</v>
+        <v>1.0038</v>
       </c>
       <c r="D77" t="n">
-        <v>1.0208</v>
+        <v>1.0114</v>
       </c>
       <c r="E77" t="n">
-        <v>1.0208</v>
+        <v>1.0114</v>
       </c>
       <c r="F77" t="n">
-        <v>1.0054</v>
+        <v>0.9962</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="78">
@@ -2301,16 +2534,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.9824000000000001</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>1.0093</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1.0093</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9747</v>
+        <v>0.9657</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-3.04</v>
       </c>
     </row>
     <row r="79">
@@ -2325,16 +2561,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.9862</v>
+        <v>0.9771</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9872</v>
+        <v>0.9781</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9939</v>
+        <v>0.9847</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9824000000000001</v>
+        <v>0.9733000000000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="80">
@@ -2349,16 +2588,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.0016</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9853</v>
+        <v>0.9762</v>
       </c>
       <c r="E80" t="n">
-        <v>1.0073</v>
+        <v>0.9981</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9853</v>
+        <v>0.9762</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="81">
@@ -2373,16 +2615,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.0045</v>
+        <v>0.9952</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9997</v>
+        <v>0.9905</v>
       </c>
       <c r="E81" t="n">
-        <v>1.0054</v>
+        <v>0.9962</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9949</v>
+        <v>0.9857</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="82">
@@ -2397,16 +2642,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.0083</v>
+        <v>0.999</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0045</v>
+        <v>0.9952</v>
       </c>
       <c r="E82" t="n">
-        <v>1.015</v>
+        <v>1.0057</v>
       </c>
       <c r="F82" t="n">
-        <v>1.0045</v>
+        <v>0.9952</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="83">
@@ -2421,16 +2669,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.0093</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0073</v>
+        <v>0.9981</v>
       </c>
       <c r="E83" t="n">
-        <v>1.0131</v>
+        <v>1.0038</v>
       </c>
       <c r="F83" t="n">
-        <v>1.0054</v>
+        <v>0.9962</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="84">
@@ -2445,16 +2696,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.0122</v>
+        <v>1.0028</v>
       </c>
       <c r="D84" t="n">
-        <v>1.0122</v>
+        <v>1.0028</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0131</v>
+        <v>1.0038</v>
       </c>
       <c r="F84" t="n">
-        <v>1.0064</v>
+        <v>0.9971</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="85">
@@ -2469,16 +2723,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.0102</v>
+        <v>1.0009</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0151</v>
+        <v>1.0057</v>
       </c>
       <c r="E85" t="n">
-        <v>1.019</v>
+        <v>1.0096</v>
       </c>
       <c r="F85" t="n">
-        <v>1.0092</v>
+        <v>0.9999</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="86">
@@ -2493,16 +2750,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.017</v>
+        <v>1.0076</v>
       </c>
       <c r="D86" t="n">
-        <v>1.0082</v>
+        <v>0.9989</v>
       </c>
       <c r="E86" t="n">
-        <v>1.019</v>
+        <v>1.0096</v>
       </c>
       <c r="F86" t="n">
-        <v>1.0043</v>
+        <v>0.9951</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="87">
@@ -2517,16 +2777,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.0248</v>
+        <v>1.0154</v>
       </c>
       <c r="D87" t="n">
-        <v>1.019</v>
+        <v>1.0096</v>
       </c>
       <c r="E87" t="n">
-        <v>1.0277</v>
+        <v>1.0183</v>
       </c>
       <c r="F87" t="n">
-        <v>1.019</v>
+        <v>1.0096</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="88">
@@ -2541,16 +2804,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.0355</v>
+        <v>1.026</v>
       </c>
       <c r="D88" t="n">
-        <v>1.0238</v>
+        <v>1.0144</v>
       </c>
       <c r="E88" t="n">
-        <v>1.0355</v>
+        <v>1.026</v>
       </c>
       <c r="F88" t="n">
-        <v>1.0238</v>
+        <v>1.0144</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="89">
@@ -2565,16 +2831,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.0258</v>
+        <v>1.0163</v>
       </c>
       <c r="D89" t="n">
-        <v>1.0326</v>
+        <v>1.0231</v>
       </c>
       <c r="E89" t="n">
-        <v>1.0375</v>
+        <v>1.0279</v>
       </c>
       <c r="F89" t="n">
-        <v>1.0248</v>
+        <v>1.0154</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="90">
@@ -2589,16 +2858,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.0219</v>
+        <v>1.0125</v>
       </c>
       <c r="D90" t="n">
-        <v>1.0238</v>
+        <v>1.0144</v>
       </c>
       <c r="E90" t="n">
-        <v>1.0238</v>
+        <v>1.0144</v>
       </c>
       <c r="F90" t="n">
-        <v>1.017</v>
+        <v>1.0076</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="91">
@@ -2613,16 +2885,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.0229</v>
+        <v>1.0134</v>
       </c>
       <c r="D91" t="n">
-        <v>1.0229</v>
+        <v>1.0134</v>
       </c>
       <c r="E91" t="n">
-        <v>1.0238</v>
+        <v>1.0144</v>
       </c>
       <c r="F91" t="n">
-        <v>1.018</v>
+        <v>1.0086</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="92">
@@ -2637,16 +2912,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.0258</v>
+        <v>1.0163</v>
       </c>
       <c r="D92" t="n">
-        <v>1.017</v>
+        <v>1.0076</v>
       </c>
       <c r="E92" t="n">
-        <v>1.0268</v>
+        <v>1.0173</v>
       </c>
       <c r="F92" t="n">
-        <v>1.016</v>
+        <v>1.0067</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="93">
@@ -2661,16 +2939,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.0326</v>
+        <v>1.0231</v>
       </c>
       <c r="D93" t="n">
-        <v>1.0277</v>
+        <v>1.0183</v>
       </c>
       <c r="E93" t="n">
-        <v>1.0326</v>
+        <v>1.0231</v>
       </c>
       <c r="F93" t="n">
-        <v>1.0258</v>
+        <v>1.0163</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="94">
@@ -2685,16 +2966,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.0433</v>
+        <v>1.0337</v>
       </c>
       <c r="D94" t="n">
-        <v>1.0316</v>
+        <v>1.0221</v>
       </c>
       <c r="E94" t="n">
-        <v>1.0443</v>
+        <v>1.0347</v>
       </c>
       <c r="F94" t="n">
-        <v>1.0316</v>
+        <v>1.0221</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="95">
@@ -2709,16 +2993,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.0375</v>
+        <v>1.0279</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0433</v>
+        <v>1.0337</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0453</v>
+        <v>1.0357</v>
       </c>
       <c r="F95" t="n">
-        <v>1.0365</v>
+        <v>1.027</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -2733,16 +3020,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.0326</v>
+        <v>1.0231</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0355</v>
+        <v>1.026</v>
       </c>
       <c r="E96" t="n">
-        <v>1.0424</v>
+        <v>1.0328</v>
       </c>
       <c r="F96" t="n">
-        <v>1.0287</v>
+        <v>1.0192</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="97">
@@ -2757,16 +3047,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.0414</v>
+        <v>1.0318</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0346</v>
+        <v>1.025</v>
       </c>
       <c r="E97" t="n">
-        <v>1.0453</v>
+        <v>1.0357</v>
       </c>
       <c r="F97" t="n">
-        <v>1.0336</v>
+        <v>1.0241</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="98">
@@ -2781,16 +3074,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.0238</v>
+        <v>1.0144</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0326</v>
+        <v>1.0231</v>
       </c>
       <c r="E98" t="n">
-        <v>1.0385</v>
+        <v>1.0289</v>
       </c>
       <c r="F98" t="n">
-        <v>1.0209</v>
+        <v>1.0115</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1.69</v>
       </c>
     </row>
     <row r="99">
@@ -2805,16 +3101,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.018</v>
+        <v>1.0086</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0238</v>
+        <v>1.0144</v>
       </c>
       <c r="E99" t="n">
-        <v>1.0268</v>
+        <v>1.0173</v>
       </c>
       <c r="F99" t="n">
-        <v>1.016</v>
+        <v>1.0067</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.57</v>
       </c>
     </row>
     <row r="100">
@@ -2829,16 +3128,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.0082</v>
+        <v>0.9989</v>
       </c>
       <c r="D100" t="n">
-        <v>1.018</v>
+        <v>1.0086</v>
       </c>
       <c r="E100" t="n">
-        <v>1.018</v>
+        <v>1.0086</v>
       </c>
       <c r="F100" t="n">
-        <v>1.0043</v>
+        <v>0.9951</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="101">
@@ -2853,16 +3155,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.0034</v>
+        <v>0.9941</v>
       </c>
       <c r="D101" t="n">
-        <v>1.0092</v>
+        <v>0.9999</v>
       </c>
       <c r="E101" t="n">
-        <v>1.0151</v>
+        <v>1.0057</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0034</v>
+        <v>0.9941</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="102">
@@ -2877,16 +3182,19 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.0004</v>
+        <v>0.9912</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0034</v>
+        <v>0.9941</v>
       </c>
       <c r="E102" t="n">
-        <v>1.0092</v>
+        <v>0.9999</v>
       </c>
       <c r="F102" t="n">
-        <v>1.0004</v>
+        <v>0.9912</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="103">
@@ -2901,16 +3209,19 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.9878</v>
+        <v>0.9787</v>
       </c>
       <c r="D103" t="n">
-        <v>1.0004</v>
+        <v>0.9912</v>
       </c>
       <c r="E103" t="n">
-        <v>1.0034</v>
+        <v>0.9941</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9858</v>
+        <v>0.9767</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1.26</v>
       </c>
     </row>
     <row r="104">
@@ -2925,16 +3236,19 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.9868</v>
+        <v>0.9777</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9897</v>
+        <v>0.9806</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9917</v>
+        <v>0.9825</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9848</v>
+        <v>0.9758</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="105">
@@ -2949,16 +3263,19 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.9712</v>
+        <v>0.9622000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9897</v>
+        <v>0.9806</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9897</v>
+        <v>0.9806</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9673</v>
+        <v>0.9584</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1.59</v>
       </c>
     </row>
     <row r="106">
@@ -2973,16 +3290,19 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.98</v>
+        <v>0.9709</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9712</v>
+        <v>0.9622000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9848</v>
+        <v>0.9758</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9712</v>
+        <v>0.9622000000000001</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="107">
@@ -2997,16 +3317,19 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.9868</v>
+        <v>0.9777</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9848</v>
+        <v>0.9758</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9946</v>
+        <v>0.9854000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9829</v>
+        <v>0.9738</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="108">
@@ -3021,16 +3344,19 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9883</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9926</v>
+        <v>0.9835</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9883</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9917</v>
+        <v>0.9825</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="109">
@@ -3045,16 +3371,19 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.0053</v>
+        <v>0.996</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9883</v>
       </c>
       <c r="E109" t="n">
-        <v>1.0053</v>
+        <v>0.996</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9917</v>
+        <v>0.9825</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="110">
@@ -3069,16 +3398,19 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.0092</v>
+        <v>0.9999</v>
       </c>
       <c r="D110" t="n">
-        <v>1.0073</v>
+        <v>0.998</v>
       </c>
       <c r="E110" t="n">
-        <v>1.0141</v>
+        <v>1.0047</v>
       </c>
       <c r="F110" t="n">
-        <v>1.0053</v>
+        <v>0.996</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="111">
@@ -3093,16 +3425,19 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1.0219</v>
+        <v>1.0125</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0131</v>
+        <v>1.0038</v>
       </c>
       <c r="E111" t="n">
-        <v>1.0277</v>
+        <v>1.0183</v>
       </c>
       <c r="F111" t="n">
-        <v>1.0131</v>
+        <v>1.0038</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="112">
@@ -3117,16 +3452,19 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.0531</v>
+        <v>1.0434</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0258</v>
+        <v>1.0163</v>
       </c>
       <c r="E112" t="n">
-        <v>1.0541</v>
+        <v>1.0444</v>
       </c>
       <c r="F112" t="n">
-        <v>1.0229</v>
+        <v>1.0134</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="113">
@@ -3141,16 +3479,19 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1.0628</v>
+        <v>1.053</v>
       </c>
       <c r="D113" t="n">
-        <v>1.0697</v>
+        <v>1.0598</v>
       </c>
       <c r="E113" t="n">
-        <v>1.0833</v>
+        <v>1.0733</v>
       </c>
       <c r="F113" t="n">
-        <v>1.0609</v>
+        <v>1.0511</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="114">
@@ -3165,16 +3506,19 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.0804</v>
+        <v>1.0704</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0638</v>
+        <v>1.054</v>
       </c>
       <c r="E114" t="n">
-        <v>1.0804</v>
+        <v>1.0704</v>
       </c>
       <c r="F114" t="n">
-        <v>1.0589</v>
+        <v>1.0492</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="115">
@@ -3189,16 +3533,19 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1.094</v>
+        <v>1.084</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0921</v>
+        <v>1.082</v>
       </c>
       <c r="E115" t="n">
-        <v>1.1155</v>
+        <v>1.1052</v>
       </c>
       <c r="F115" t="n">
-        <v>1.0853</v>
+        <v>1.0753</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="116">
@@ -3213,16 +3560,19 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1.1428</v>
+        <v>1.1323</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1135</v>
+        <v>1.1033</v>
       </c>
       <c r="E116" t="n">
-        <v>1.1574</v>
+        <v>1.1468</v>
       </c>
       <c r="F116" t="n">
-        <v>1.1067</v>
+        <v>1.0965</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row r="117">
@@ -3237,16 +3587,19 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.1994</v>
+        <v>1.1883</v>
       </c>
       <c r="D117" t="n">
-        <v>1.2569</v>
+        <v>1.2453</v>
       </c>
       <c r="E117" t="n">
-        <v>1.2569</v>
+        <v>1.2453</v>
       </c>
       <c r="F117" t="n">
-        <v>1.1701</v>
+        <v>1.1593</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4.95</v>
       </c>
     </row>
     <row r="118">
@@ -3261,16 +3614,19 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.1243</v>
+        <v>1.1139</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1984</v>
+        <v>1.1873</v>
       </c>
       <c r="E118" t="n">
-        <v>1.1994</v>
+        <v>1.1883</v>
       </c>
       <c r="F118" t="n">
-        <v>1.1077</v>
+        <v>1.0975</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-6.26</v>
       </c>
     </row>
     <row r="119">
@@ -3285,16 +3641,19 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1.1681</v>
+        <v>1.1574</v>
       </c>
       <c r="D119" t="n">
-        <v>1.135</v>
+        <v>1.1245</v>
       </c>
       <c r="E119" t="n">
-        <v>1.1955</v>
+        <v>1.1844</v>
       </c>
       <c r="F119" t="n">
-        <v>1.135</v>
+        <v>1.1245</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="120">
@@ -3309,16 +3668,19 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.1418</v>
+        <v>1.1313</v>
       </c>
       <c r="D120" t="n">
-        <v>1.1701</v>
+        <v>1.1593</v>
       </c>
       <c r="E120" t="n">
-        <v>1.1779</v>
+        <v>1.167</v>
       </c>
       <c r="F120" t="n">
-        <v>1.1369</v>
+        <v>1.1265</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2.26</v>
       </c>
     </row>
     <row r="121">
@@ -3333,16 +3695,19 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.1818</v>
+        <v>1.1709</v>
       </c>
       <c r="D121" t="n">
-        <v>1.1623</v>
+        <v>1.1516</v>
       </c>
       <c r="E121" t="n">
-        <v>1.1945</v>
+        <v>1.1835</v>
       </c>
       <c r="F121" t="n">
-        <v>1.1594</v>
+        <v>1.1487</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="122">
@@ -3357,16 +3722,19 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1.1457</v>
+        <v>1.1352</v>
       </c>
       <c r="D122" t="n">
-        <v>1.1838</v>
+        <v>1.1728</v>
       </c>
       <c r="E122" t="n">
-        <v>1.1896</v>
+        <v>1.1786</v>
       </c>
       <c r="F122" t="n">
-        <v>1.1457</v>
+        <v>1.1352</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-3.05</v>
       </c>
     </row>
     <row r="123">
@@ -3381,16 +3749,19 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.1613</v>
+        <v>1.1506</v>
       </c>
       <c r="D123" t="n">
-        <v>1.1418</v>
+        <v>1.1313</v>
       </c>
       <c r="E123" t="n">
-        <v>1.1681</v>
+        <v>1.1574</v>
       </c>
       <c r="F123" t="n">
-        <v>1.1408</v>
+        <v>1.1303</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="124">
@@ -3405,16 +3776,19 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.1477</v>
+        <v>1.1371</v>
       </c>
       <c r="D124" t="n">
-        <v>1.1672</v>
+        <v>1.1564</v>
       </c>
       <c r="E124" t="n">
-        <v>1.1799</v>
+        <v>1.169</v>
       </c>
       <c r="F124" t="n">
-        <v>1.1467</v>
+        <v>1.1361</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="125">
@@ -3429,16 +3803,19 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.1701</v>
+        <v>1.1593</v>
       </c>
       <c r="D125" t="n">
-        <v>1.1457</v>
+        <v>1.1352</v>
       </c>
       <c r="E125" t="n">
-        <v>1.1838</v>
+        <v>1.1728</v>
       </c>
       <c r="F125" t="n">
-        <v>1.1457</v>
+        <v>1.1352</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="126">
@@ -3453,16 +3830,19 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1.1652</v>
+        <v>1.1545</v>
       </c>
       <c r="D126" t="n">
-        <v>1.1818</v>
+        <v>1.1709</v>
       </c>
       <c r="E126" t="n">
-        <v>1.1886</v>
+        <v>1.1777</v>
       </c>
       <c r="F126" t="n">
-        <v>1.1633</v>
+        <v>1.1526</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="127">
@@ -3477,16 +3857,19 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1.1721</v>
+        <v>1.1613</v>
       </c>
       <c r="D127" t="n">
-        <v>1.1633</v>
+        <v>1.1526</v>
       </c>
       <c r="E127" t="n">
-        <v>1.1769</v>
+        <v>1.1661</v>
       </c>
       <c r="F127" t="n">
-        <v>1.1633</v>
+        <v>1.1526</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="128">
@@ -3501,16 +3884,19 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1.1779</v>
+        <v>1.167</v>
       </c>
       <c r="D128" t="n">
-        <v>1.1711</v>
+        <v>1.1603</v>
       </c>
       <c r="E128" t="n">
-        <v>1.1886</v>
+        <v>1.1777</v>
       </c>
       <c r="F128" t="n">
-        <v>1.1711</v>
+        <v>1.1603</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="129">
@@ -3525,16 +3911,19 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.1721</v>
+        <v>1.1613</v>
       </c>
       <c r="D129" t="n">
-        <v>1.1779</v>
+        <v>1.167</v>
       </c>
       <c r="E129" t="n">
-        <v>1.1779</v>
+        <v>1.167</v>
       </c>
       <c r="F129" t="n">
-        <v>1.1672</v>
+        <v>1.1564</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="130">
@@ -3549,16 +3938,19 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1.1711</v>
+        <v>1.1603</v>
       </c>
       <c r="D130" t="n">
-        <v>1.174</v>
+        <v>1.1632</v>
       </c>
       <c r="E130" t="n">
-        <v>1.1769</v>
+        <v>1.1661</v>
       </c>
       <c r="F130" t="n">
-        <v>1.1691</v>
+        <v>1.1584</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="131">
@@ -3573,16 +3965,19 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.1799</v>
+        <v>1.169</v>
       </c>
       <c r="D131" t="n">
-        <v>1.1681</v>
+        <v>1.1574</v>
       </c>
       <c r="E131" t="n">
-        <v>1.1818</v>
+        <v>1.1709</v>
       </c>
       <c r="F131" t="n">
-        <v>1.1662</v>
+        <v>1.1555</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="132">
@@ -3597,16 +3992,19 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.1662</v>
+        <v>1.1555</v>
       </c>
       <c r="D132" t="n">
-        <v>1.1838</v>
+        <v>1.1728</v>
       </c>
       <c r="E132" t="n">
-        <v>1.1906</v>
+        <v>1.1796</v>
       </c>
       <c r="F132" t="n">
-        <v>1.1652</v>
+        <v>1.1545</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1.15</v>
       </c>
     </row>
     <row r="133">
@@ -3621,16 +4019,19 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.1506</v>
+        <v>1.14</v>
       </c>
       <c r="D133" t="n">
-        <v>1.1701</v>
+        <v>1.1593</v>
       </c>
       <c r="E133" t="n">
-        <v>1.1711</v>
+        <v>1.1603</v>
       </c>
       <c r="F133" t="n">
-        <v>1.1467</v>
+        <v>1.1361</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1.34</v>
       </c>
     </row>
     <row r="134">
@@ -3645,16 +4046,19 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.1496</v>
+        <v>1.139</v>
       </c>
       <c r="D134" t="n">
-        <v>1.1525</v>
+        <v>1.1419</v>
       </c>
       <c r="E134" t="n">
-        <v>1.1603</v>
+        <v>1.1497</v>
       </c>
       <c r="F134" t="n">
-        <v>1.1467</v>
+        <v>1.1361</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="135">
@@ -3669,16 +4073,19 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1.1574</v>
+        <v>1.1468</v>
       </c>
       <c r="D135" t="n">
-        <v>1.1496</v>
+        <v>1.139</v>
       </c>
       <c r="E135" t="n">
-        <v>1.1662</v>
+        <v>1.1555</v>
       </c>
       <c r="F135" t="n">
-        <v>1.1496</v>
+        <v>1.139</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="136">
@@ -3693,16 +4100,19 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.1613</v>
+        <v>1.1506</v>
       </c>
       <c r="D136" t="n">
-        <v>1.1584</v>
+        <v>1.1477</v>
       </c>
       <c r="E136" t="n">
-        <v>1.1613</v>
+        <v>1.1506</v>
       </c>
       <c r="F136" t="n">
-        <v>1.1506</v>
+        <v>1.14</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="137">
@@ -3717,16 +4127,19 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.1799</v>
+        <v>1.169</v>
       </c>
       <c r="D137" t="n">
-        <v>1.1613</v>
+        <v>1.1506</v>
       </c>
       <c r="E137" t="n">
-        <v>1.1828</v>
+        <v>1.1719</v>
       </c>
       <c r="F137" t="n">
-        <v>1.1603</v>
+        <v>1.1497</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="138">
@@ -3741,16 +4154,19 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1.1818</v>
+        <v>1.1709</v>
       </c>
       <c r="D138" t="n">
-        <v>1.1808</v>
+        <v>1.1699</v>
       </c>
       <c r="E138" t="n">
-        <v>1.1935</v>
+        <v>1.1825</v>
       </c>
       <c r="F138" t="n">
-        <v>1.175</v>
+        <v>1.1641</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="139">
@@ -3765,16 +4181,19 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.212</v>
+        <v>1.2009</v>
       </c>
       <c r="D139" t="n">
-        <v>1.1818</v>
+        <v>1.1709</v>
       </c>
       <c r="E139" t="n">
-        <v>1.2169</v>
+        <v>1.2057</v>
       </c>
       <c r="F139" t="n">
-        <v>1.1769</v>
+        <v>1.1661</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="140">
@@ -3789,16 +4208,19 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.1925</v>
+        <v>1.1815</v>
       </c>
       <c r="D140" t="n">
-        <v>1.2189</v>
+        <v>1.2076</v>
       </c>
       <c r="E140" t="n">
-        <v>1.2247</v>
+        <v>1.2134</v>
       </c>
       <c r="F140" t="n">
-        <v>1.1886</v>
+        <v>1.1777</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1.62</v>
       </c>
     </row>
     <row r="141">
@@ -3813,16 +4235,19 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.175</v>
+        <v>1.1641</v>
       </c>
       <c r="D141" t="n">
-        <v>1.1799</v>
+        <v>1.169</v>
       </c>
       <c r="E141" t="n">
-        <v>1.1857</v>
+        <v>1.1748</v>
       </c>
       <c r="F141" t="n">
-        <v>1.1691</v>
+        <v>1.1584</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1.47</v>
       </c>
     </row>
     <row r="142">
@@ -3837,16 +4262,19 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.1516</v>
+        <v>1.141</v>
       </c>
       <c r="D142" t="n">
-        <v>1.1711</v>
+        <v>1.1603</v>
       </c>
       <c r="E142" t="n">
-        <v>1.1906</v>
+        <v>1.1796</v>
       </c>
       <c r="F142" t="n">
-        <v>1.1467</v>
+        <v>1.1361</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1.98</v>
       </c>
     </row>
     <row r="143">
@@ -3861,16 +4289,19 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1.1447</v>
+        <v>1.1341</v>
       </c>
       <c r="D143" t="n">
-        <v>1.1615</v>
+        <v>1.1508</v>
       </c>
       <c r="E143" t="n">
-        <v>1.1615</v>
+        <v>1.1508</v>
       </c>
       <c r="F143" t="n">
-        <v>1.1427</v>
+        <v>1.1322</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="144">
@@ -3885,16 +4316,19 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1.1338</v>
+        <v>1.1233</v>
       </c>
       <c r="D144" t="n">
-        <v>1.1476</v>
+        <v>1.1371</v>
       </c>
       <c r="E144" t="n">
-        <v>1.1516</v>
+        <v>1.141</v>
       </c>
       <c r="F144" t="n">
-        <v>1.1338</v>
+        <v>1.1233</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="145">
@@ -3909,16 +4343,19 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.1367</v>
+        <v>1.1263</v>
       </c>
       <c r="D145" t="n">
-        <v>1.1338</v>
+        <v>1.1233</v>
       </c>
       <c r="E145" t="n">
-        <v>1.1466</v>
+        <v>1.1361</v>
       </c>
       <c r="F145" t="n">
-        <v>1.1338</v>
+        <v>1.1233</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="146">
@@ -3933,16 +4370,19 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.1585</v>
+        <v>1.1479</v>
       </c>
       <c r="D146" t="n">
-        <v>1.1457</v>
+        <v>1.1351</v>
       </c>
       <c r="E146" t="n">
-        <v>1.1645</v>
+        <v>1.1537</v>
       </c>
       <c r="F146" t="n">
-        <v>1.1417</v>
+        <v>1.1312</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="147">
@@ -3957,16 +4397,19 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.1595</v>
+        <v>1.1488</v>
       </c>
       <c r="D147" t="n">
-        <v>1.1645</v>
+        <v>1.1537</v>
       </c>
       <c r="E147" t="n">
-        <v>1.1674</v>
+        <v>1.1567</v>
       </c>
       <c r="F147" t="n">
-        <v>1.1556</v>
+        <v>1.1449</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="148">
@@ -3981,16 +4424,19 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.1645</v>
+        <v>1.1537</v>
       </c>
       <c r="D148" t="n">
-        <v>1.1635</v>
+        <v>1.1528</v>
       </c>
       <c r="E148" t="n">
-        <v>1.1665</v>
+        <v>1.1557</v>
       </c>
       <c r="F148" t="n">
-        <v>1.1585</v>
+        <v>1.1479</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="149">
@@ -4005,16 +4451,19 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.1655</v>
+        <v>1.1547</v>
       </c>
       <c r="D149" t="n">
-        <v>1.1635</v>
+        <v>1.1528</v>
       </c>
       <c r="E149" t="n">
-        <v>1.1694</v>
+        <v>1.1586</v>
       </c>
       <c r="F149" t="n">
-        <v>1.1625</v>
+        <v>1.1518</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="150">
@@ -4029,16 +4478,19 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1.1358</v>
+        <v>1.1253</v>
       </c>
       <c r="D150" t="n">
-        <v>1.1655</v>
+        <v>1.1547</v>
       </c>
       <c r="E150" t="n">
-        <v>1.1694</v>
+        <v>1.1586</v>
       </c>
       <c r="F150" t="n">
-        <v>1.1338</v>
+        <v>1.1233</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2.55</v>
       </c>
     </row>
     <row r="151">
@@ -4053,16 +4505,19 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.1387</v>
+        <v>1.1282</v>
       </c>
       <c r="D151" t="n">
-        <v>1.1407</v>
+        <v>1.1302</v>
       </c>
       <c r="E151" t="n">
-        <v>1.1457</v>
+        <v>1.1351</v>
       </c>
       <c r="F151" t="n">
-        <v>1.1338</v>
+        <v>1.1233</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="152">
@@ -4077,16 +4532,19 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1.1308</v>
+        <v>1.1204</v>
       </c>
       <c r="D152" t="n">
-        <v>1.1367</v>
+        <v>1.1263</v>
       </c>
       <c r="E152" t="n">
-        <v>1.1397</v>
+        <v>1.1292</v>
       </c>
       <c r="F152" t="n">
-        <v>1.1298</v>
+        <v>1.1194</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -4101,16 +4559,19 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.1377</v>
+        <v>1.1273</v>
       </c>
       <c r="D153" t="n">
-        <v>1.1308</v>
+        <v>1.1204</v>
       </c>
       <c r="E153" t="n">
-        <v>1.1387</v>
+        <v>1.1282</v>
       </c>
       <c r="F153" t="n">
-        <v>1.1209</v>
+        <v>1.1106</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="154">
@@ -4125,16 +4586,19 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.1308</v>
+        <v>1.1204</v>
       </c>
       <c r="D154" t="n">
-        <v>1.1397</v>
+        <v>1.1292</v>
       </c>
       <c r="E154" t="n">
-        <v>1.1407</v>
+        <v>1.1302</v>
       </c>
       <c r="F154" t="n">
-        <v>1.1308</v>
+        <v>1.1204</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="155">
@@ -4149,16 +4613,19 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.1338</v>
+        <v>1.1233</v>
       </c>
       <c r="D155" t="n">
-        <v>1.1348</v>
+        <v>1.1243</v>
       </c>
       <c r="E155" t="n">
-        <v>1.1437</v>
+        <v>1.1331</v>
       </c>
       <c r="F155" t="n">
-        <v>1.1278</v>
+        <v>1.1174</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="156">
@@ -4173,16 +4640,19 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.1476</v>
+        <v>1.1371</v>
       </c>
       <c r="D156" t="n">
-        <v>1.1427</v>
+        <v>1.1322</v>
       </c>
       <c r="E156" t="n">
-        <v>1.1526</v>
+        <v>1.142</v>
       </c>
       <c r="F156" t="n">
-        <v>1.1387</v>
+        <v>1.1282</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="157">
@@ -4197,16 +4667,19 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.1674</v>
+        <v>1.1567</v>
       </c>
       <c r="D157" t="n">
-        <v>1.1486</v>
+        <v>1.138</v>
       </c>
       <c r="E157" t="n">
-        <v>1.1684</v>
+        <v>1.1577</v>
       </c>
       <c r="F157" t="n">
-        <v>1.1486</v>
+        <v>1.138</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="158">
@@ -4221,16 +4694,19 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.1684</v>
+        <v>1.1577</v>
       </c>
       <c r="D158" t="n">
-        <v>1.1674</v>
+        <v>1.1567</v>
       </c>
       <c r="E158" t="n">
-        <v>1.1724</v>
+        <v>1.1616</v>
       </c>
       <c r="F158" t="n">
-        <v>1.1615</v>
+        <v>1.1508</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="159">
@@ -4245,16 +4721,19 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.1645</v>
+        <v>1.1537</v>
       </c>
       <c r="D159" t="n">
-        <v>1.1665</v>
+        <v>1.1557</v>
       </c>
       <c r="E159" t="n">
-        <v>1.1694</v>
+        <v>1.1586</v>
       </c>
       <c r="F159" t="n">
-        <v>1.1635</v>
+        <v>1.1528</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="160">
@@ -4269,16 +4748,19 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.1773</v>
+        <v>1.1665</v>
       </c>
       <c r="D160" t="n">
-        <v>1.1674</v>
+        <v>1.1567</v>
       </c>
       <c r="E160" t="n">
-        <v>1.1783</v>
+        <v>1.1675</v>
       </c>
       <c r="F160" t="n">
-        <v>1.1674</v>
+        <v>1.1567</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="161">
@@ -4293,16 +4775,19 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.1813</v>
+        <v>1.1704</v>
       </c>
       <c r="D161" t="n">
-        <v>1.1783</v>
+        <v>1.1675</v>
       </c>
       <c r="E161" t="n">
-        <v>1.1853</v>
+        <v>1.1743</v>
       </c>
       <c r="F161" t="n">
-        <v>1.1714</v>
+        <v>1.1606</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="162">
@@ -4317,16 +4802,19 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.1942</v>
+        <v>1.1832</v>
       </c>
       <c r="D162" t="n">
-        <v>1.2179</v>
+        <v>1.2067</v>
       </c>
       <c r="E162" t="n">
-        <v>1.2269</v>
+        <v>1.2155</v>
       </c>
       <c r="F162" t="n">
-        <v>1.1932</v>
+        <v>1.1822</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="163">
@@ -4341,16 +4829,19 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.1912</v>
+        <v>1.1802</v>
       </c>
       <c r="D163" t="n">
-        <v>1.1932</v>
+        <v>1.1822</v>
       </c>
       <c r="E163" t="n">
-        <v>1.2031</v>
+        <v>1.192</v>
       </c>
       <c r="F163" t="n">
-        <v>1.1892</v>
+        <v>1.1783</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="164">
@@ -4365,16 +4856,19 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.208</v>
+        <v>1.1969</v>
       </c>
       <c r="D164" t="n">
-        <v>1.1912</v>
+        <v>1.1802</v>
       </c>
       <c r="E164" t="n">
-        <v>1.212</v>
+        <v>1.2008</v>
       </c>
       <c r="F164" t="n">
-        <v>1.1912</v>
+        <v>1.1802</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="165">
@@ -4389,16 +4883,19 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.1902</v>
+        <v>1.1792</v>
       </c>
       <c r="D165" t="n">
-        <v>1.2071</v>
+        <v>1.1959</v>
       </c>
       <c r="E165" t="n">
-        <v>1.2071</v>
+        <v>1.1959</v>
       </c>
       <c r="F165" t="n">
-        <v>1.1872</v>
+        <v>1.1763</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1.48</v>
       </c>
     </row>
     <row r="166">
@@ -4413,16 +4910,19 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.1882</v>
+        <v>1.1773</v>
       </c>
       <c r="D166" t="n">
-        <v>1.1882</v>
+        <v>1.1773</v>
       </c>
       <c r="E166" t="n">
-        <v>1.1932</v>
+        <v>1.1822</v>
       </c>
       <c r="F166" t="n">
-        <v>1.1853</v>
+        <v>1.1743</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="167">
@@ -4437,16 +4937,19 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.1813</v>
+        <v>1.1704</v>
       </c>
       <c r="D167" t="n">
-        <v>1.1892</v>
+        <v>1.1783</v>
       </c>
       <c r="E167" t="n">
-        <v>1.1902</v>
+        <v>1.1792</v>
       </c>
       <c r="F167" t="n">
-        <v>1.1793</v>
+        <v>1.1685</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="168">
@@ -4461,16 +4964,19 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1.1892</v>
+        <v>1.1783</v>
       </c>
       <c r="D168" t="n">
-        <v>1.1853</v>
+        <v>1.1743</v>
       </c>
       <c r="E168" t="n">
-        <v>1.1942</v>
+        <v>1.1832</v>
       </c>
       <c r="F168" t="n">
-        <v>1.1853</v>
+        <v>1.1743</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="169">
@@ -4485,16 +4991,19 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1.1843</v>
+        <v>1.1734</v>
       </c>
       <c r="D169" t="n">
-        <v>1.1863</v>
+        <v>1.1753</v>
       </c>
       <c r="E169" t="n">
-        <v>1.1892</v>
+        <v>1.1783</v>
       </c>
       <c r="F169" t="n">
-        <v>1.1793</v>
+        <v>1.1685</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="170">
@@ -4509,16 +5018,19 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.1793</v>
+        <v>1.1685</v>
       </c>
       <c r="D170" t="n">
-        <v>1.1813</v>
+        <v>1.1704</v>
       </c>
       <c r="E170" t="n">
-        <v>1.1853</v>
+        <v>1.1743</v>
       </c>
       <c r="F170" t="n">
-        <v>1.1744</v>
+        <v>1.1636</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="171">
@@ -4533,16 +5045,19 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.1892</v>
+        <v>1.1783</v>
       </c>
       <c r="D171" t="n">
-        <v>1.1793</v>
+        <v>1.1685</v>
       </c>
       <c r="E171" t="n">
-        <v>1.1922</v>
+        <v>1.1812</v>
       </c>
       <c r="F171" t="n">
-        <v>1.1793</v>
+        <v>1.1685</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="172">
@@ -4557,16 +5072,19 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.211</v>
+        <v>1.1999</v>
       </c>
       <c r="D172" t="n">
-        <v>1.1902</v>
+        <v>1.1792</v>
       </c>
       <c r="E172" t="n">
-        <v>1.214</v>
+        <v>1.2028</v>
       </c>
       <c r="F172" t="n">
-        <v>1.1882</v>
+        <v>1.1773</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="173">
@@ -4581,16 +5099,19 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.216</v>
+        <v>1.2048</v>
       </c>
       <c r="D173" t="n">
-        <v>1.212</v>
+        <v>1.2008</v>
       </c>
       <c r="E173" t="n">
-        <v>1.2457</v>
+        <v>1.2342</v>
       </c>
       <c r="F173" t="n">
-        <v>1.2041</v>
+        <v>1.193</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="174">
@@ -4605,16 +5126,19 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.2199</v>
+        <v>1.2087</v>
       </c>
       <c r="D174" t="n">
-        <v>1.217</v>
+        <v>1.2057</v>
       </c>
       <c r="E174" t="n">
-        <v>1.2229</v>
+        <v>1.2116</v>
       </c>
       <c r="F174" t="n">
-        <v>1.214</v>
+        <v>1.2028</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="175">
@@ -4629,16 +5153,19 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1.212</v>
+        <v>1.2008</v>
       </c>
       <c r="D175" t="n">
-        <v>1.2189</v>
+        <v>1.2077</v>
       </c>
       <c r="E175" t="n">
-        <v>1.2189</v>
+        <v>1.2077</v>
       </c>
       <c r="F175" t="n">
-        <v>1.2041</v>
+        <v>1.193</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="176">
@@ -4653,16 +5180,19 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1.216</v>
+        <v>1.2048</v>
       </c>
       <c r="D176" t="n">
-        <v>1.209</v>
+        <v>1.1979</v>
       </c>
       <c r="E176" t="n">
-        <v>1.2209</v>
+        <v>1.2097</v>
       </c>
       <c r="F176" t="n">
-        <v>1.209</v>
+        <v>1.1979</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="177">
@@ -4677,16 +5207,19 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1.2189</v>
+        <v>1.2077</v>
       </c>
       <c r="D177" t="n">
-        <v>1.216</v>
+        <v>1.2048</v>
       </c>
       <c r="E177" t="n">
-        <v>1.2269</v>
+        <v>1.2155</v>
       </c>
       <c r="F177" t="n">
-        <v>1.216</v>
+        <v>1.2048</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="178">
@@ -4701,16 +5234,19 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1.1882</v>
+        <v>1.1773</v>
       </c>
       <c r="D178" t="n">
-        <v>1.2199</v>
+        <v>1.2087</v>
       </c>
       <c r="E178" t="n">
-        <v>1.2219</v>
+        <v>1.2106</v>
       </c>
       <c r="F178" t="n">
-        <v>1.1853</v>
+        <v>1.1743</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2.52</v>
       </c>
     </row>
     <row r="179">
@@ -4725,16 +5261,19 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1.1823</v>
+        <v>1.1714</v>
       </c>
       <c r="D179" t="n">
-        <v>1.1882</v>
+        <v>1.1773</v>
       </c>
       <c r="E179" t="n">
-        <v>1.1962</v>
+        <v>1.1851</v>
       </c>
       <c r="F179" t="n">
-        <v>1.1823</v>
+        <v>1.1714</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="180">
@@ -4749,16 +5288,19 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.1872</v>
+        <v>1.1763</v>
       </c>
       <c r="D180" t="n">
-        <v>1.1843</v>
+        <v>1.1734</v>
       </c>
       <c r="E180" t="n">
-        <v>1.1922</v>
+        <v>1.1812</v>
       </c>
       <c r="F180" t="n">
-        <v>1.1813</v>
+        <v>1.1704</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="181">
@@ -4773,16 +5315,19 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.1764</v>
+        <v>1.1655</v>
       </c>
       <c r="D181" t="n">
-        <v>1.1872</v>
+        <v>1.1763</v>
       </c>
       <c r="E181" t="n">
-        <v>1.1872</v>
+        <v>1.1763</v>
       </c>
       <c r="F181" t="n">
-        <v>1.1724</v>
+        <v>1.1616</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-0.92</v>
       </c>
     </row>
     <row r="182">
@@ -4797,16 +5342,19 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.1694</v>
+        <v>1.1586</v>
       </c>
       <c r="D182" t="n">
-        <v>1.1754</v>
+        <v>1.1645</v>
       </c>
       <c r="E182" t="n">
-        <v>1.1813</v>
+        <v>1.1704</v>
       </c>
       <c r="F182" t="n">
-        <v>1.1595</v>
+        <v>1.1488</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="183">
@@ -4821,16 +5369,19 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1.1714</v>
+        <v>1.1606</v>
       </c>
       <c r="D183" t="n">
-        <v>1.1684</v>
+        <v>1.1577</v>
       </c>
       <c r="E183" t="n">
-        <v>1.1754</v>
+        <v>1.1645</v>
       </c>
       <c r="F183" t="n">
-        <v>1.1645</v>
+        <v>1.1537</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="184">
@@ -4845,16 +5396,19 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1.1575</v>
+        <v>1.1469</v>
       </c>
       <c r="D184" t="n">
-        <v>1.1724</v>
+        <v>1.1616</v>
       </c>
       <c r="E184" t="n">
-        <v>1.1754</v>
+        <v>1.1645</v>
       </c>
       <c r="F184" t="n">
-        <v>1.1566</v>
+        <v>1.1459</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="185">
@@ -4869,16 +5423,19 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1.1476</v>
+        <v>1.1371</v>
       </c>
       <c r="D185" t="n">
-        <v>1.1585</v>
+        <v>1.1479</v>
       </c>
       <c r="E185" t="n">
-        <v>1.1585</v>
+        <v>1.1479</v>
       </c>
       <c r="F185" t="n">
-        <v>1.1407</v>
+        <v>1.1302</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-0.85</v>
       </c>
     </row>
     <row r="186">
@@ -4893,16 +5450,19 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1.1665</v>
+        <v>1.1557</v>
       </c>
       <c r="D186" t="n">
-        <v>1.1466</v>
+        <v>1.1361</v>
       </c>
       <c r="E186" t="n">
-        <v>1.1704</v>
+        <v>1.1596</v>
       </c>
       <c r="F186" t="n">
-        <v>1.1457</v>
+        <v>1.1351</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="187">
@@ -4917,16 +5477,19 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.1714</v>
+        <v>1.1606</v>
       </c>
       <c r="D187" t="n">
-        <v>1.1625</v>
+        <v>1.1518</v>
       </c>
       <c r="E187" t="n">
-        <v>1.1754</v>
+        <v>1.1645</v>
       </c>
       <c r="F187" t="n">
-        <v>1.1625</v>
+        <v>1.1518</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="188">
@@ -4941,16 +5504,19 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.1764</v>
+        <v>1.1655</v>
       </c>
       <c r="D188" t="n">
+        <v>1.1606</v>
+      </c>
+      <c r="E188" t="n">
         <v>1.1714</v>
       </c>
-      <c r="E188" t="n">
-        <v>1.1823</v>
-      </c>
       <c r="F188" t="n">
-        <v>1.1714</v>
+        <v>1.1606</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="189">
@@ -4965,16 +5531,19 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1.1823</v>
+        <v>1.1714</v>
       </c>
       <c r="D189" t="n">
-        <v>1.1744</v>
+        <v>1.1636</v>
       </c>
       <c r="E189" t="n">
-        <v>1.1853</v>
+        <v>1.1743</v>
       </c>
       <c r="F189" t="n">
-        <v>1.1734</v>
+        <v>1.1626</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="190">
@@ -4989,16 +5558,19 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1.1902</v>
+        <v>1.1792</v>
       </c>
       <c r="D190" t="n">
-        <v>1.1872</v>
+        <v>1.1763</v>
       </c>
       <c r="E190" t="n">
-        <v>1.1981</v>
+        <v>1.1871</v>
       </c>
       <c r="F190" t="n">
-        <v>1.1872</v>
+        <v>1.1763</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="191">
@@ -5013,16 +5585,19 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.1882</v>
+        <v>1.1773</v>
       </c>
       <c r="D191" t="n">
-        <v>1.1991</v>
+        <v>1.1881</v>
       </c>
       <c r="E191" t="n">
-        <v>1.2011</v>
+        <v>1.19</v>
       </c>
       <c r="F191" t="n">
-        <v>1.1853</v>
+        <v>1.1743</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="192">
@@ -5037,16 +5612,19 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1.1744</v>
+        <v>1.1636</v>
       </c>
       <c r="D192" t="n">
-        <v>1.1863</v>
+        <v>1.1753</v>
       </c>
       <c r="E192" t="n">
-        <v>1.1872</v>
+        <v>1.1763</v>
       </c>
       <c r="F192" t="n">
-        <v>1.1734</v>
+        <v>1.1626</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1.16</v>
       </c>
     </row>
     <row r="193">
@@ -5061,16 +5639,19 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1.1803</v>
+        <v>1.1694</v>
       </c>
       <c r="D193" t="n">
-        <v>1.1823</v>
+        <v>1.1714</v>
       </c>
       <c r="E193" t="n">
-        <v>1.1922</v>
+        <v>1.1812</v>
       </c>
       <c r="F193" t="n">
-        <v>1.1783</v>
+        <v>1.1675</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="194">
@@ -5085,16 +5666,19 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1.1912</v>
+        <v>1.1802</v>
       </c>
       <c r="D194" t="n">
-        <v>1.1823</v>
+        <v>1.1714</v>
       </c>
       <c r="E194" t="n">
-        <v>1.1922</v>
+        <v>1.1812</v>
       </c>
       <c r="F194" t="n">
-        <v>1.1823</v>
+        <v>1.1714</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="195">
@@ -5109,16 +5693,19 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1.1971</v>
+        <v>1.1861</v>
       </c>
       <c r="D195" t="n">
-        <v>1.1942</v>
+        <v>1.1832</v>
       </c>
       <c r="E195" t="n">
-        <v>1.1991</v>
+        <v>1.1881</v>
       </c>
       <c r="F195" t="n">
-        <v>1.1922</v>
+        <v>1.1812</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="196">
@@ -5133,16 +5720,19 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1.1872</v>
+        <v>1.1763</v>
       </c>
       <c r="D196" t="n">
-        <v>1.1981</v>
+        <v>1.1871</v>
       </c>
       <c r="E196" t="n">
-        <v>1.2001</v>
+        <v>1.1891</v>
       </c>
       <c r="F196" t="n">
-        <v>1.1853</v>
+        <v>1.1743</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="197">
@@ -5157,16 +5747,19 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1.1912</v>
+        <v>1.1802</v>
       </c>
       <c r="D197" t="n">
-        <v>1.1872</v>
+        <v>1.1763</v>
       </c>
       <c r="E197" t="n">
-        <v>1.1952</v>
+        <v>1.1842</v>
       </c>
       <c r="F197" t="n">
-        <v>1.1843</v>
+        <v>1.1734</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="198">
@@ -5181,16 +5774,19 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1.1922</v>
+        <v>1.1812</v>
       </c>
       <c r="D198" t="n">
-        <v>1.1971</v>
+        <v>1.1861</v>
       </c>
       <c r="E198" t="n">
-        <v>1.1991</v>
+        <v>1.1881</v>
       </c>
       <c r="F198" t="n">
-        <v>1.1882</v>
+        <v>1.1773</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="199">
@@ -5205,16 +5801,19 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1.1962</v>
+        <v>1.1851</v>
       </c>
       <c r="D199" t="n">
-        <v>1.1922</v>
+        <v>1.1812</v>
       </c>
       <c r="E199" t="n">
-        <v>1.2021</v>
+        <v>1.191</v>
       </c>
       <c r="F199" t="n">
-        <v>1.1922</v>
+        <v>1.1812</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="200">
@@ -5229,16 +5828,19 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1.1932</v>
+        <v>1.1822</v>
       </c>
       <c r="D200" t="n">
-        <v>1.1942</v>
+        <v>1.1832</v>
       </c>
       <c r="E200" t="n">
-        <v>1.1981</v>
+        <v>1.1871</v>
       </c>
       <c r="F200" t="n">
-        <v>1.1902</v>
+        <v>1.1792</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="201">
@@ -5253,16 +5855,19 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1.212</v>
+        <v>1.2008</v>
       </c>
       <c r="D201" t="n">
-        <v>1.1962</v>
+        <v>1.1851</v>
       </c>
       <c r="E201" t="n">
-        <v>1.213</v>
+        <v>1.2018</v>
       </c>
       <c r="F201" t="n">
-        <v>1.1962</v>
+        <v>1.1851</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="202">
@@ -5277,16 +5882,19 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1.215</v>
+        <v>1.2038</v>
       </c>
       <c r="D202" t="n">
-        <v>1.216</v>
+        <v>1.2048</v>
       </c>
       <c r="E202" t="n">
-        <v>1.2179</v>
+        <v>1.2067</v>
       </c>
       <c r="F202" t="n">
-        <v>1.2071</v>
+        <v>1.1959</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="203">
@@ -5301,16 +5909,19 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1.205</v>
+        <v>1.1939</v>
       </c>
       <c r="D203" t="n">
-        <v>1.21</v>
+        <v>1.1989</v>
       </c>
       <c r="E203" t="n">
-        <v>1.211</v>
+        <v>1.1998</v>
       </c>
       <c r="F203" t="n">
-        <v>1.198</v>
+        <v>1.187</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-0.82</v>
       </c>
     </row>
     <row r="204">
@@ -5325,16 +5936,19 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1.221</v>
+        <v>1.2097</v>
       </c>
       <c r="D204" t="n">
-        <v>1.21</v>
+        <v>1.1989</v>
       </c>
       <c r="E204" t="n">
-        <v>1.221</v>
+        <v>1.2097</v>
       </c>
       <c r="F204" t="n">
-        <v>1.203</v>
+        <v>1.1919</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="205">
@@ -5349,16 +5963,19 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.218</v>
+        <v>1.2068</v>
       </c>
       <c r="D205" t="n">
-        <v>1.224</v>
+        <v>1.2127</v>
       </c>
       <c r="E205" t="n">
-        <v>1.229</v>
+        <v>1.2177</v>
       </c>
       <c r="F205" t="n">
-        <v>1.213</v>
+        <v>1.2018</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="206">
@@ -5373,16 +5990,19 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.221</v>
+        <v>1.2097</v>
       </c>
       <c r="D206" t="n">
-        <v>1.219</v>
+        <v>1.2078</v>
       </c>
       <c r="E206" t="n">
-        <v>1.227</v>
+        <v>1.2157</v>
       </c>
       <c r="F206" t="n">
-        <v>1.217</v>
+        <v>1.2058</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="207">
@@ -5397,16 +6017,19 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1.217</v>
+        <v>1.2058</v>
       </c>
       <c r="D207" t="n">
-        <v>1.215</v>
+        <v>1.2038</v>
       </c>
       <c r="E207" t="n">
-        <v>1.221</v>
+        <v>1.2097</v>
       </c>
       <c r="F207" t="n">
-        <v>1.212</v>
+        <v>1.2008</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="208">
@@ -5421,16 +6044,19 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1.216</v>
+        <v>1.2048</v>
       </c>
       <c r="D208" t="n">
-        <v>1.218</v>
+        <v>1.2068</v>
       </c>
       <c r="E208" t="n">
-        <v>1.222</v>
+        <v>1.2107</v>
       </c>
       <c r="F208" t="n">
-        <v>1.212</v>
+        <v>1.2008</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="209">
@@ -5445,16 +6071,19 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1.228</v>
+        <v>1.2167</v>
       </c>
       <c r="D209" t="n">
-        <v>1.216</v>
+        <v>1.2048</v>
       </c>
       <c r="E209" t="n">
-        <v>1.235</v>
+        <v>1.2236</v>
       </c>
       <c r="F209" t="n">
-        <v>1.212</v>
+        <v>1.2008</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="210">
@@ -5469,16 +6098,19 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1.215</v>
+        <v>1.2038</v>
       </c>
       <c r="D210" t="n">
-        <v>1.22</v>
+        <v>1.2088</v>
       </c>
       <c r="E210" t="n">
-        <v>1.222</v>
+        <v>1.2107</v>
       </c>
       <c r="F210" t="n">
-        <v>1.213</v>
+        <v>1.2018</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="211">
@@ -5493,16 +6125,19 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1.239</v>
+        <v>1.2276</v>
       </c>
       <c r="D211" t="n">
-        <v>1.221</v>
+        <v>1.2097</v>
       </c>
       <c r="E211" t="n">
-        <v>1.24</v>
+        <v>1.2286</v>
       </c>
       <c r="F211" t="n">
-        <v>1.221</v>
+        <v>1.2097</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row r="212">
@@ -5517,16 +6152,19 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1.245</v>
+        <v>1.2335</v>
       </c>
       <c r="D212" t="n">
-        <v>1.24</v>
+        <v>1.2286</v>
       </c>
       <c r="E212" t="n">
-        <v>1.247</v>
+        <v>1.2355</v>
       </c>
       <c r="F212" t="n">
-        <v>1.234</v>
+        <v>1.2226</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="213">
@@ -5541,16 +6179,19 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1.221</v>
+        <v>1.2097</v>
       </c>
       <c r="D213" t="n">
-        <v>1.246</v>
+        <v>1.2345</v>
       </c>
       <c r="E213" t="n">
-        <v>1.246</v>
+        <v>1.2345</v>
       </c>
       <c r="F213" t="n">
-        <v>1.219</v>
+        <v>1.2078</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1.93</v>
       </c>
     </row>
     <row r="214">
@@ -5565,16 +6206,19 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.221</v>
+        <v>1.2097</v>
       </c>
       <c r="D214" t="n">
-        <v>1.222</v>
+        <v>1.2107</v>
       </c>
       <c r="E214" t="n">
-        <v>1.238</v>
+        <v>1.2266</v>
       </c>
       <c r="F214" t="n">
-        <v>1.22</v>
+        <v>1.2088</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5589,16 +6233,19 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.224</v>
+        <v>1.2127</v>
       </c>
       <c r="D215" t="n">
-        <v>1.22</v>
+        <v>1.2088</v>
       </c>
       <c r="E215" t="n">
-        <v>1.225</v>
+        <v>1.2137</v>
       </c>
       <c r="F215" t="n">
-        <v>1.212</v>
+        <v>1.2008</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="216">
@@ -5613,16 +6260,19 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1.243</v>
+        <v>1.2315</v>
       </c>
       <c r="D216" t="n">
-        <v>1.226</v>
+        <v>1.2147</v>
       </c>
       <c r="E216" t="n">
-        <v>1.244</v>
+        <v>1.2325</v>
       </c>
       <c r="F216" t="n">
-        <v>1.226</v>
+        <v>1.2147</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="217">
@@ -5637,16 +6287,19 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1.254</v>
+        <v>1.2424</v>
       </c>
       <c r="D217" t="n">
-        <v>1.25</v>
+        <v>1.2385</v>
       </c>
       <c r="E217" t="n">
-        <v>1.254</v>
+        <v>1.2424</v>
       </c>
       <c r="F217" t="n">
-        <v>1.243</v>
+        <v>1.2315</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="218">
@@ -5661,16 +6314,19 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1.265</v>
+        <v>1.2533</v>
       </c>
       <c r="D218" t="n">
-        <v>1.25</v>
+        <v>1.2385</v>
       </c>
       <c r="E218" t="n">
-        <v>1.27</v>
+        <v>1.2583</v>
       </c>
       <c r="F218" t="n">
-        <v>1.249</v>
+        <v>1.2375</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="219">
@@ -5685,16 +6341,19 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1.256</v>
+        <v>1.2444</v>
       </c>
       <c r="D219" t="n">
-        <v>1.263</v>
+        <v>1.2514</v>
       </c>
       <c r="E219" t="n">
-        <v>1.266</v>
+        <v>1.2543</v>
       </c>
       <c r="F219" t="n">
-        <v>1.25</v>
+        <v>1.2385</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-0.71</v>
       </c>
     </row>
     <row r="220">
@@ -5709,16 +6368,19 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1.264</v>
+        <v>1.2524</v>
       </c>
       <c r="D220" t="n">
-        <v>1.253</v>
+        <v>1.2415</v>
       </c>
       <c r="E220" t="n">
-        <v>1.267</v>
+        <v>1.2553</v>
       </c>
       <c r="F220" t="n">
-        <v>1.246</v>
+        <v>1.2345</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="221">
@@ -5733,16 +6395,19 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1.265</v>
+        <v>1.2533</v>
       </c>
       <c r="D221" t="n">
-        <v>1.267</v>
+        <v>1.2553</v>
       </c>
       <c r="E221" t="n">
-        <v>1.269</v>
+        <v>1.2573</v>
       </c>
       <c r="F221" t="n">
-        <v>1.258</v>
+        <v>1.2464</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="222">
@@ -5757,16 +6422,19 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1.265</v>
+        <v>1.2533</v>
       </c>
       <c r="D222" t="n">
-        <v>1.265</v>
+        <v>1.2533</v>
       </c>
       <c r="E222" t="n">
-        <v>1.272</v>
+        <v>1.2603</v>
       </c>
       <c r="F222" t="n">
-        <v>1.259</v>
+        <v>1.2474</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5781,16 +6449,19 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1.274</v>
+        <v>1.2623</v>
       </c>
       <c r="D223" t="n">
-        <v>1.269</v>
+        <v>1.2573</v>
       </c>
       <c r="E223" t="n">
-        <v>1.279</v>
+        <v>1.2672</v>
       </c>
       <c r="F223" t="n">
-        <v>1.266</v>
+        <v>1.2543</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="224">
@@ -5805,16 +6476,19 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1.283</v>
+        <v>1.2712</v>
       </c>
       <c r="D224" t="n">
-        <v>1.274</v>
+        <v>1.2623</v>
       </c>
       <c r="E224" t="n">
-        <v>1.284</v>
+        <v>1.2722</v>
       </c>
       <c r="F224" t="n">
-        <v>1.273</v>
+        <v>1.2613</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="225">
@@ -5829,16 +6503,19 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1.297</v>
+        <v>1.285</v>
       </c>
       <c r="D225" t="n">
-        <v>1.288</v>
+        <v>1.2761</v>
       </c>
       <c r="E225" t="n">
-        <v>1.298</v>
+        <v>1.286</v>
       </c>
       <c r="F225" t="n">
-        <v>1.285</v>
+        <v>1.2732</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="226">
@@ -5853,16 +6530,19 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1.3</v>
+        <v>1.288</v>
       </c>
       <c r="D226" t="n">
-        <v>1.297</v>
+        <v>1.285</v>
       </c>
       <c r="E226" t="n">
-        <v>1.303</v>
+        <v>1.291</v>
       </c>
       <c r="F226" t="n">
-        <v>1.295</v>
+        <v>1.2831</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="227">
@@ -5877,16 +6557,19 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1.29</v>
+        <v>1.2781</v>
       </c>
       <c r="D227" t="n">
-        <v>1.3</v>
+        <v>1.288</v>
       </c>
       <c r="E227" t="n">
-        <v>1.304</v>
+        <v>1.292</v>
       </c>
       <c r="F227" t="n">
-        <v>1.29</v>
+        <v>1.2781</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="228">
@@ -5901,16 +6584,19 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1.279</v>
+        <v>1.2672</v>
       </c>
       <c r="D228" t="n">
-        <v>1.288</v>
+        <v>1.2761</v>
       </c>
       <c r="E228" t="n">
-        <v>1.294</v>
+        <v>1.2821</v>
       </c>
       <c r="F228" t="n">
-        <v>1.27</v>
+        <v>1.2583</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-0.85</v>
       </c>
     </row>
     <row r="229">
@@ -5925,16 +6611,19 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1.273</v>
+        <v>1.2613</v>
       </c>
       <c r="D229" t="n">
-        <v>1.28</v>
+        <v>1.2682</v>
       </c>
       <c r="E229" t="n">
-        <v>1.284</v>
+        <v>1.2722</v>
       </c>
       <c r="F229" t="n">
-        <v>1.269</v>
+        <v>1.2573</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="230">
@@ -5949,16 +6638,19 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1.269</v>
+        <v>1.2573</v>
       </c>
       <c r="D230" t="n">
-        <v>1.272</v>
+        <v>1.2603</v>
       </c>
       <c r="E230" t="n">
-        <v>1.28</v>
+        <v>1.2682</v>
       </c>
       <c r="F230" t="n">
-        <v>1.268</v>
+        <v>1.2563</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="231">
@@ -5973,16 +6665,19 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1.269</v>
+        <v>1.2573</v>
       </c>
       <c r="D231" t="n">
-        <v>1.269</v>
+        <v>1.2573</v>
       </c>
       <c r="E231" t="n">
-        <v>1.275</v>
+        <v>1.2633</v>
       </c>
       <c r="F231" t="n">
-        <v>1.266</v>
+        <v>1.2543</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5997,16 +6692,19 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1.279</v>
+        <v>1.2672</v>
       </c>
       <c r="D232" t="n">
-        <v>1.271</v>
+        <v>1.2593</v>
       </c>
       <c r="E232" t="n">
-        <v>1.283</v>
+        <v>1.2712</v>
       </c>
       <c r="F232" t="n">
-        <v>1.271</v>
+        <v>1.2593</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="233">
@@ -6021,16 +6719,19 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1.259</v>
+        <v>1.2474</v>
       </c>
       <c r="D233" t="n">
-        <v>1.28</v>
+        <v>1.2682</v>
       </c>
       <c r="E233" t="n">
-        <v>1.286</v>
+        <v>1.2742</v>
       </c>
       <c r="F233" t="n">
-        <v>1.256</v>
+        <v>1.2444</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1.56</v>
       </c>
     </row>
     <row r="234">
@@ -6045,16 +6746,19 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1.254</v>
+        <v>1.2424</v>
       </c>
       <c r="D234" t="n">
-        <v>1.258</v>
+        <v>1.2464</v>
       </c>
       <c r="E234" t="n">
-        <v>1.263</v>
+        <v>1.2514</v>
       </c>
       <c r="F234" t="n">
-        <v>1.248</v>
+        <v>1.2365</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="235">
@@ -6069,16 +6773,19 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1.264</v>
+        <v>1.2524</v>
       </c>
       <c r="D235" t="n">
-        <v>1.254</v>
+        <v>1.2424</v>
       </c>
       <c r="E235" t="n">
-        <v>1.267</v>
+        <v>1.2553</v>
       </c>
       <c r="F235" t="n">
-        <v>1.254</v>
+        <v>1.2424</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="236">
@@ -6093,16 +6800,19 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1.275</v>
+        <v>1.2633</v>
       </c>
       <c r="D236" t="n">
-        <v>1.266</v>
+        <v>1.2543</v>
       </c>
       <c r="E236" t="n">
-        <v>1.275</v>
+        <v>1.2633</v>
       </c>
       <c r="F236" t="n">
-        <v>1.261</v>
+        <v>1.2494</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="237">
@@ -6117,16 +6827,19 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1.265</v>
+        <v>1.2533</v>
       </c>
       <c r="D237" t="n">
-        <v>1.262</v>
+        <v>1.2504</v>
       </c>
       <c r="E237" t="n">
-        <v>1.27</v>
+        <v>1.2583</v>
       </c>
       <c r="F237" t="n">
-        <v>1.26</v>
+        <v>1.2484</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-0.79</v>
       </c>
     </row>
     <row r="238">
@@ -6141,16 +6854,19 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1.165</v>
+        <v>1.1543</v>
       </c>
       <c r="D238" t="n">
-        <v>1.208</v>
+        <v>1.1969</v>
       </c>
       <c r="E238" t="n">
-        <v>1.217</v>
+        <v>1.2058</v>
       </c>
       <c r="F238" t="n">
-        <v>1.152</v>
+        <v>1.1414</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-7.9</v>
       </c>
     </row>
     <row r="239">
@@ -6165,16 +6881,19 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1.161</v>
+        <v>1.1503</v>
       </c>
       <c r="D239" t="n">
-        <v>1.165</v>
+        <v>1.1543</v>
       </c>
       <c r="E239" t="n">
-        <v>1.178</v>
+        <v>1.1671</v>
       </c>
       <c r="F239" t="n">
-        <v>1.154</v>
+        <v>1.1434</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="240">
@@ -6189,16 +6908,19 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1.167</v>
+        <v>1.1562</v>
       </c>
       <c r="D240" t="n">
-        <v>1.156</v>
+        <v>1.1453</v>
       </c>
       <c r="E240" t="n">
-        <v>1.172</v>
+        <v>1.1612</v>
       </c>
       <c r="F240" t="n">
-        <v>1.133</v>
+        <v>1.1226</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="241">
@@ -6213,16 +6935,19 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1.19</v>
+        <v>1.179</v>
       </c>
       <c r="D241" t="n">
-        <v>1.199</v>
+        <v>1.188</v>
       </c>
       <c r="E241" t="n">
-        <v>1.207</v>
+        <v>1.1959</v>
       </c>
       <c r="F241" t="n">
-        <v>1.186</v>
+        <v>1.1751</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="242">
@@ -6237,16 +6962,19 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1.192</v>
+        <v>1.181</v>
       </c>
       <c r="D242" t="n">
-        <v>1.189</v>
+        <v>1.178</v>
       </c>
       <c r="E242" t="n">
-        <v>1.197</v>
+        <v>1.186</v>
       </c>
       <c r="F242" t="n">
-        <v>1.177</v>
+        <v>1.1662</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="243">
@@ -6261,16 +6989,19 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1.215</v>
+        <v>1.2038</v>
       </c>
       <c r="D243" t="n">
-        <v>1.203</v>
+        <v>1.1919</v>
       </c>
       <c r="E243" t="n">
-        <v>1.218</v>
+        <v>1.2068</v>
       </c>
       <c r="F243" t="n">
-        <v>1.203</v>
+        <v>1.1919</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="244">
@@ -6285,16 +7016,19 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1.222</v>
+        <v>1.2107</v>
       </c>
       <c r="D244" t="n">
-        <v>1.218</v>
+        <v>1.2068</v>
       </c>
       <c r="E244" t="n">
-        <v>1.224</v>
+        <v>1.2127</v>
       </c>
       <c r="F244" t="n">
-        <v>1.217</v>
+        <v>1.2058</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="245">
@@ -6309,16 +7043,19 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1.215</v>
+        <v>1.2038</v>
       </c>
       <c r="D245" t="n">
-        <v>1.222</v>
+        <v>1.2107</v>
       </c>
       <c r="E245" t="n">
-        <v>1.226</v>
+        <v>1.2147</v>
       </c>
       <c r="F245" t="n">
-        <v>1.21</v>
+        <v>1.1989</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-0.57</v>
       </c>
     </row>
     <row r="246">
@@ -6333,16 +7070,19 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1.219</v>
+        <v>1.2078</v>
       </c>
       <c r="D246" t="n">
-        <v>1.216</v>
+        <v>1.2048</v>
       </c>
       <c r="E246" t="n">
-        <v>1.223</v>
+        <v>1.2117</v>
       </c>
       <c r="F246" t="n">
-        <v>1.212</v>
+        <v>1.2008</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="247">
@@ -6357,16 +7097,19 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1.217</v>
+        <v>1.2058</v>
       </c>
       <c r="D247" t="n">
-        <v>1.22</v>
+        <v>1.2088</v>
       </c>
       <c r="E247" t="n">
-        <v>1.22</v>
+        <v>1.2088</v>
       </c>
       <c r="F247" t="n">
-        <v>1.214</v>
+        <v>1.2028</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="248">
@@ -6381,16 +7124,19 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1.22</v>
+        <v>1.2088</v>
       </c>
       <c r="D248" t="n">
-        <v>1.218</v>
+        <v>1.2068</v>
       </c>
       <c r="E248" t="n">
-        <v>1.221</v>
+        <v>1.2097</v>
       </c>
       <c r="F248" t="n">
-        <v>1.213</v>
+        <v>1.2018</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="249">
@@ -6405,16 +7151,19 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1.23</v>
+        <v>1.2187</v>
       </c>
       <c r="D249" t="n">
-        <v>1.22</v>
+        <v>1.2088</v>
       </c>
       <c r="E249" t="n">
-        <v>1.233</v>
+        <v>1.2216</v>
       </c>
       <c r="F249" t="n">
-        <v>1.218</v>
+        <v>1.2068</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="250">
@@ -6429,16 +7178,19 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1.241</v>
+        <v>1.2296</v>
       </c>
       <c r="D250" t="n">
-        <v>1.236</v>
+        <v>1.2246</v>
       </c>
       <c r="E250" t="n">
-        <v>1.246</v>
+        <v>1.2345</v>
       </c>
       <c r="F250" t="n">
-        <v>1.236</v>
+        <v>1.2246</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="251">
@@ -6453,16 +7205,19 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1.235</v>
+        <v>1.2236</v>
       </c>
       <c r="D251" t="n">
-        <v>1.242</v>
+        <v>1.2306</v>
       </c>
       <c r="E251" t="n">
-        <v>1.243</v>
+        <v>1.2315</v>
       </c>
       <c r="F251" t="n">
-        <v>1.233</v>
+        <v>1.2216</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="252">
@@ -6477,16 +7232,19 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1.244</v>
+        <v>1.2325</v>
       </c>
       <c r="D252" t="n">
-        <v>1.24</v>
+        <v>1.2286</v>
       </c>
       <c r="E252" t="n">
-        <v>1.25</v>
+        <v>1.2385</v>
       </c>
       <c r="F252" t="n">
-        <v>1.24</v>
+        <v>1.2286</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="253">
@@ -6501,16 +7259,19 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1.251</v>
+        <v>1.2395</v>
       </c>
       <c r="D253" t="n">
-        <v>1.244</v>
+        <v>1.2325</v>
       </c>
       <c r="E253" t="n">
-        <v>1.251</v>
+        <v>1.2395</v>
       </c>
       <c r="F253" t="n">
-        <v>1.237</v>
+        <v>1.2256</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="254">
@@ -6525,16 +7286,19 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1.241</v>
+        <v>1.2296</v>
       </c>
       <c r="D254" t="n">
-        <v>1.251</v>
+        <v>1.2395</v>
       </c>
       <c r="E254" t="n">
-        <v>1.254</v>
+        <v>1.2424</v>
       </c>
       <c r="F254" t="n">
-        <v>1.24</v>
+        <v>1.2286</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="255">
@@ -6549,16 +7313,19 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1.243</v>
+        <v>1.2315</v>
       </c>
       <c r="D255" t="n">
-        <v>1.243</v>
+        <v>1.2315</v>
       </c>
       <c r="E255" t="n">
-        <v>1.246</v>
+        <v>1.2345</v>
       </c>
       <c r="F255" t="n">
-        <v>1.233</v>
+        <v>1.2216</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="256">
@@ -6573,16 +7340,19 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1.251</v>
+        <v>1.2395</v>
       </c>
       <c r="D256" t="n">
-        <v>1.246</v>
+        <v>1.2345</v>
       </c>
       <c r="E256" t="n">
-        <v>1.252</v>
+        <v>1.2405</v>
       </c>
       <c r="F256" t="n">
-        <v>1.243</v>
+        <v>1.2315</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="257">
@@ -6597,16 +7367,208 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1.261</v>
+        <v>1.2494</v>
       </c>
       <c r="D257" t="n">
-        <v>1.256</v>
+        <v>1.2444</v>
       </c>
       <c r="E257" t="n">
-        <v>1.267</v>
+        <v>1.2553</v>
       </c>
       <c r="F257" t="n">
-        <v>1.256</v>
+        <v>1.2444</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>20250508</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1.2494</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.2474</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.2533</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1.2444</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1.2563</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.2494</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.2603</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1.2494</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>20250512</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1.2702</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.2603</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.2742</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1.2603</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>20250513</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1.2781</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.2732</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.2791</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1.2712</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>20250514</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1.2969</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.2801</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1.2969</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1.2771</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>20250515</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.2969</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1.2969</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1.289</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>20250516</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>SZ159545</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1.282</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1.277</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
